--- a/medicine/Mort/Cimetière_de_Loschwitz/Cimetière_de_Loschwitz.xlsx
+++ b/medicine/Mort/Cimetière_de_Loschwitz/Cimetière_de_Loschwitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Loschwitz</t>
+          <t>Cimetière_de_Loschwitz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Loschwitz (Loschwitzer Friedhof) est un cimetière situé à Loschwitz, quartier de la ville de Dresde. Il a été fondé en 1800 et fait partie du patrimoine culturel protégé depuis 1985.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Loschwitz</t>
+          <t>Cimetière_de_Loschwitz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit cimetière de la paroisse luthérienne-évangélique de Loschwitz étant devenu insuffisant, un second cimetière a été fondé à la Pillnitzer Landstraße et agrandi par la suite. Il est partagé en une partie ancienne et une partie nouvelle, ouverte en 1918.
 La chapelle a été construite en 1893 par Friedrich Reuter. Les vitraux sont de Wilhelm Walther, tandis qu'une Crucifixion à l'extérieur est l'œuvre du sculpteur Johannes Hartmann de Leipzig. Les cloches ont été fondues en 1947 avec l'inscription Die Friede (la paix) par Friedrich Wilhelm Schilling d'Apolda.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Loschwitz</t>
+          <t>Cimetière_de_Loschwitz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sépultures remarquables
-Le cimetière abrite les sépultures de nombreux artistes, dont soixante sont considérées comme patrimoine artistique. Il est protégé depuis 1985.
+          <t>Sépultures remarquables</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière abrite les sépultures de nombreux artistes, dont soixante sont considérées comme patrimoine artistique. Il est protégé depuis 1985.
 Walter Arnold : sa sépulture comporte une sculpture de ses mains Il n'y a pas de souffrance étrangère
 Hermann Glöckner : tombe de Peter Makolies
 Josef Hegenbarth : sépulture d'après un dessin de ses mains
@@ -564,8 +583,43 @@
 			Sépulture de Sascha Schneider
 			Sépulture d'Oskar Zwintscher
 			Sculpture de Friedrich Press: La Mort avec une bombe
-Autres tombes de personnalités
-Karl Kröner (1887-1972), peintre et écrivain
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Loschwitz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Loschwitz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres tombes de personnalités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Karl Kröner (1887-1972), peintre et écrivain
 Kurt Martens (1870-1945), écrivain
 Irena Rüther-Rabinowicz (1900-1979), peintre
 Osmar Schindler (1867-1927), peintre</t>
